--- a/config_6.01/sys_txz_config.xlsx
+++ b/config_6.01/sys_txz_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name=" shopIDs" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>"1000鱼币","20万金币","80万金币"</t>
+  </si>
+  <si>
+    <t>line</t>
   </si>
   <si>
     <t>type</t>
@@ -168,9 +171,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -209,21 +212,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,11 +248,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,31 +295,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,46 +334,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -339,7 +342,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,37 +369,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,73 +519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,36 +543,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -523,30 +550,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +568,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,35 +641,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,73 +680,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -752,58 +755,58 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,8 +1182,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1224,7 +1227,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1364,20 +1367,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="39.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="39.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1387,218 +1390,266 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>30004</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
         <v>30005</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>30</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>30006</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>30007</v>
+      </c>
+      <c r="D5">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="E5" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>30007</v>
-      </c>
-      <c r="C5">
+      <c r="C6" s="3">
+        <v>30008</v>
+      </c>
+      <c r="D6">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="B6" s="3">
-        <v>30008</v>
-      </c>
-      <c r="C6">
+      <c r="C7" s="3">
+        <v>30009</v>
+      </c>
+      <c r="D7">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
-        <v>30009</v>
-      </c>
-      <c r="C7">
+      <c r="C8" s="3">
+        <v>30010</v>
+      </c>
+      <c r="D8">
         <v>30</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
-        <v>30010</v>
-      </c>
-      <c r="C8">
+      <c r="C9" s="3">
+        <v>30011</v>
+      </c>
+      <c r="D9">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3">
-        <v>30011</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>30012</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>100</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>30013</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>200</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>30014</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>200</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>30015</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>200</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>30016</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>200</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>30017</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>200</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>30018</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>200</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>42</v>
+      <c r="E16" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1628,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1642,7 +1693,7 @@
         <v>30001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1653,7 +1704,7 @@
         <v>30002</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1664,7 +1715,7 @@
         <v>30003</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/config_6.01/sys_txz_config.xlsx
+++ b/config_6.01/sys_txz_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name=" shopIDs" sheetId="1" r:id="rId1"/>
@@ -34,61 +34,61 @@
     <t>num</t>
   </si>
   <si>
-    <t>by_btn_sd,ty_icon_jb_6y,ty_icon_jb_6y</t>
+    <t>"3dby_btn_sd","ty_icon_jb_6y","ty_icon_jb_6y"</t>
   </si>
   <si>
     <t>"锁定*2","2万金币","8万金币"</t>
   </si>
   <si>
-    <t>by_btn_bd,ty_icon_jb_6y,ty_icon_jb_15y</t>
+    <t>"3dby_btn_bd","ty_icon_jb_6y","ty_icon_jb_15y"</t>
   </si>
   <si>
     <t>"冰冻*2","5万金币","20万金币"</t>
   </si>
   <si>
-    <t>3dby_btn_jb,ty_icon_jb_6y,ty_icon_jb_15y</t>
+    <t>"3dby_btn_jb","ty_icon_jb_6y","ty_icon_jb_15y"</t>
   </si>
   <si>
     <t>"双倍奖励*2","6万金币","24万金币"</t>
   </si>
   <si>
-    <t>by_btn_sd,ty_icon_jb_6y,ty_icon_jb_15y</t>
+    <t>"3dby_btn_sd","ty_icon_jb_6y","ty_icon_jb_15y"</t>
   </si>
   <si>
     <t>"锁定*3","8万金币","32万金币"</t>
   </si>
   <si>
-    <t>3dby_btn_zh,com_award_icon_czyhq4,com_award_icon_czyhq6</t>
+    <t>"3dby_btn_zh","com_award_icon_czyhq4","com_award_icon_czyhq6"</t>
   </si>
   <si>
     <t>"召唤*3","50元优惠券","200元优惠券"</t>
   </si>
   <si>
-    <t>by_btn_bd,ty_icon_jb_6y,ty_icon_jb_18y</t>
+    <t>"3dby_btn_bd","ty_icon_jb_6y","ty_icon_jb_18y"</t>
   </si>
   <si>
     <t>"冰冻*3","12万金币","48万金币"</t>
   </si>
   <si>
-    <t>bygame_icon_dan_bs08,ty_icon_jb_6y,ty_icon_jb_18y</t>
+    <t>"bygame_icon_dan_bs08","ty_icon_jb_6y","ty_icon_jb_18y"</t>
   </si>
   <si>
     <t>"快速子弹*5","14万金币","56万金币"</t>
   </si>
   <si>
-    <t>bygame_icon_cjhl,ty_icon_jb_6y,ty_icon_jb_18y</t>
+    <t>"bygame_icon_cjhl","ty_icon_jb_6y","ty_icon_jb_18y"</t>
   </si>
   <si>
     <t>"超级火力*5","16万金币","64万金币"</t>
   </si>
   <si>
-    <t>3dby_btn_jb,ty_icon_debjc2,ty_icon_debjc88</t>
+    <t>"3dby_btn_jb","ty_icon_debjc2","ty_icon_debjc88"</t>
   </si>
   <si>
     <t>"双倍奖励*5","炮台加成2%","炮台加成8%"</t>
   </si>
   <si>
-    <t>ty_icon_yb_3,ty_icon_jb_15y,ty_icon_jb_30y</t>
+    <t>"ty_icon_yb_3","ty_icon_jb_15y","ty_icon_jb_30y"</t>
   </si>
   <si>
     <t>"1000鱼币","20万金币","80万金币"</t>
@@ -100,13 +100,13 @@
     <t>type</t>
   </si>
   <si>
-    <t> task</t>
+    <t>task</t>
   </si>
   <si>
     <t>addvalue</t>
   </si>
   <si>
-    <t xml:space="preserve"> task_name</t>
+    <t>task_name</t>
   </si>
   <si>
     <t>登录游戏1次</t>
@@ -171,10 +171,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -205,7 +205,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +220,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,6 +272,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -233,23 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,8 +310,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,76 +347,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -369,25 +369,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,157 +525,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,17 +566,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,17 +602,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,15 +628,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -660,6 +636,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -668,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,133 +680,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,8 +1226,8 @@
   <sheetPr/>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1369,8 +1369,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
